--- a/siswa.xlsx
+++ b/siswa.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="16275" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="36" windowWidth="16272" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>NISN</t>
   </si>
@@ -52,13 +52,16 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Tahun Ajaran</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +98,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -173,6 +181,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -207,6 +216,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -382,16 +392,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -407,8 +417,11 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -424,8 +437,11 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
+      <c r="F2">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -441,8 +457,11 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
+      <c r="F3">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -457,6 +476,9 @@
       </c>
       <c r="E4" t="s">
         <v>11</v>
+      </c>
+      <c r="F4">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
@@ -465,24 +487,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
